--- a/app/Platform/parameter_database.xlsx
+++ b/app/Platform/parameter_database.xlsx
@@ -71231,7 +71231,7 @@
         <v>266</v>
       </c>
       <c r="C51" s="127" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="D51" s="127">
         <v>1.0</v>
